--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H2">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J2">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>0.02509285802666667</v>
+        <v>0.1237153768051111</v>
       </c>
       <c r="R2">
-        <v>0.22583572224</v>
+        <v>1.113438391246</v>
       </c>
       <c r="S2">
-        <v>1.666041025527375E-05</v>
+        <v>0.0003533192136023017</v>
       </c>
       <c r="T2">
-        <v>1.666041025527375E-05</v>
+        <v>0.0003533192136023017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H3">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J3">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>0.3841282779644444</v>
+        <v>0.7659085531948888</v>
       </c>
       <c r="R3">
-        <v>3.45715450168</v>
+        <v>6.893176978753999</v>
       </c>
       <c r="S3">
-        <v>0.000255042079891352</v>
+        <v>0.002187361140502261</v>
       </c>
       <c r="T3">
-        <v>0.000255042079891352</v>
+        <v>0.002187361140502261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H4">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J4">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>1.095259529235556</v>
+        <v>2.832662741744445</v>
       </c>
       <c r="R4">
-        <v>9.85733576312</v>
+        <v>25.4939646757</v>
       </c>
       <c r="S4">
-        <v>0.0007271978773271023</v>
+        <v>0.008089812262305127</v>
       </c>
       <c r="T4">
-        <v>0.0007271978773271023</v>
+        <v>0.008089812262305127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H5">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J5">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>0.5733587260622223</v>
+        <v>0.3614153968795556</v>
       </c>
       <c r="R5">
-        <v>5.16022853456</v>
+        <v>3.252738571916</v>
       </c>
       <c r="S5">
-        <v>0.000380681689964779</v>
+        <v>0.001032167602014472</v>
       </c>
       <c r="T5">
-        <v>0.000380681689964779</v>
+        <v>0.001032167602014472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H6">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J6">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>1.748604914711111</v>
+        <v>3.969853358959556</v>
       </c>
       <c r="R6">
-        <v>15.7374442324</v>
+        <v>35.728680230636</v>
       </c>
       <c r="S6">
-        <v>0.001160986732659764</v>
+        <v>0.0113375192569118</v>
       </c>
       <c r="T6">
-        <v>0.001160986732659764</v>
+        <v>0.0113375192569118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02061333333333333</v>
+        <v>0.04110066666666667</v>
       </c>
       <c r="H7">
-        <v>0.06184</v>
+        <v>0.123302</v>
       </c>
       <c r="I7">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="J7">
-        <v>0.003258757634485539</v>
+        <v>0.02671259512010182</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>1.081690692631111</v>
+        <v>1.299909211465555</v>
       </c>
       <c r="R7">
-        <v>9.735216233680001</v>
+        <v>11.69918290319</v>
       </c>
       <c r="S7">
-        <v>0.0007181888443872684</v>
+        <v>0.003712415644765863</v>
       </c>
       <c r="T7">
-        <v>0.0007181888443872683</v>
+        <v>0.003712415644765863</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.936876</v>
       </c>
       <c r="I8">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J8">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>1.191698132437333</v>
+        <v>2.946722039949778</v>
       </c>
       <c r="R8">
-        <v>10.725283191936</v>
+        <v>26.520498359548</v>
       </c>
       <c r="S8">
-        <v>0.0007912283154732753</v>
+        <v>0.008415554644429722</v>
       </c>
       <c r="T8">
-        <v>0.000791228315473275</v>
+        <v>0.008415554644429722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.936876</v>
       </c>
       <c r="I9">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J9">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>18.24283830005022</v>
@@ -1013,10 +1013,10 @@
         <v>164.185544700452</v>
       </c>
       <c r="S9">
-        <v>0.0121123377008893</v>
+        <v>0.05209979105670402</v>
       </c>
       <c r="T9">
-        <v>0.0121123377008893</v>
+        <v>0.05209979105670402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.936876</v>
       </c>
       <c r="I10">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J10">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>52.01554697902977</v>
+        <v>67.46994551851111</v>
       </c>
       <c r="R10">
-        <v>468.139922811268</v>
+        <v>607.2295096666001</v>
       </c>
       <c r="S10">
-        <v>0.03453573727640542</v>
+        <v>0.1926876731737493</v>
       </c>
       <c r="T10">
-        <v>0.03453573727640541</v>
+        <v>0.1926876731737493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.936876</v>
       </c>
       <c r="I11">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J11">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>27.22968114428711</v>
+        <v>8.608394066000889</v>
       </c>
       <c r="R11">
-        <v>245.067130298584</v>
+        <v>77.47554659400799</v>
       </c>
       <c r="S11">
-        <v>0.01807915457466042</v>
+        <v>0.02458474524609378</v>
       </c>
       <c r="T11">
-        <v>0.01807915457466042</v>
+        <v>0.02458474524609377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.936876</v>
       </c>
       <c r="I12">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J12">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>83.04391668009555</v>
+        <v>94.5561876810409</v>
       </c>
       <c r="R12">
-        <v>747.3952501208601</v>
+        <v>851.005689129368</v>
       </c>
       <c r="S12">
-        <v>0.05513703220353941</v>
+        <v>0.2700433748451939</v>
       </c>
       <c r="T12">
-        <v>0.0551370322035394</v>
+        <v>0.2700433748451939</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.936876</v>
       </c>
       <c r="I13">
-        <v>0.1547633746205911</v>
+        <v>0.6362555311831452</v>
       </c>
       <c r="J13">
-        <v>0.1547633746205911</v>
+        <v>0.636255531183145</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>51.37114221558355</v>
+        <v>30.96196465046889</v>
       </c>
       <c r="R13">
-        <v>462.340279940252</v>
+        <v>278.65768185422</v>
       </c>
       <c r="S13">
-        <v>0.03410788454962328</v>
+        <v>0.0884243922169745</v>
       </c>
       <c r="T13">
-        <v>0.03410788454962326</v>
+        <v>0.08842439221697447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H14">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I14">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J14">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>6.483339194464001</v>
+        <v>1.560912560620111</v>
       </c>
       <c r="R14">
-        <v>58.350052750176</v>
+        <v>14.048213045581</v>
       </c>
       <c r="S14">
-        <v>0.004304614910309401</v>
+        <v>0.004457816099036999</v>
       </c>
       <c r="T14">
-        <v>0.0043046149103094</v>
+        <v>0.004457816099036999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H15">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I15">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J15">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>99.24871521538967</v>
+        <v>9.663441294379888</v>
       </c>
       <c r="R15">
-        <v>893.238436938507</v>
+        <v>86.970971649419</v>
       </c>
       <c r="S15">
-        <v>0.0658962128203965</v>
+        <v>0.02759785862513136</v>
       </c>
       <c r="T15">
-        <v>0.06589621282039648</v>
+        <v>0.02759785862513136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H16">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I16">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J16">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>282.9864587946403</v>
+        <v>35.73960624599445</v>
       </c>
       <c r="R16">
-        <v>2546.878129151763</v>
+        <v>321.65645621395</v>
       </c>
       <c r="S16">
-        <v>0.1878889401596046</v>
+        <v>0.1020688769608871</v>
       </c>
       <c r="T16">
-        <v>0.1878889401596046</v>
+        <v>0.1020688769608871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H17">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I17">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J17">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>148.1409211025993</v>
+        <v>4.559965358869556</v>
       </c>
       <c r="R17">
-        <v>1333.268289923394</v>
+        <v>41.03968822982601</v>
       </c>
       <c r="S17">
-        <v>0.09835820688661925</v>
+        <v>0.01302282235447201</v>
       </c>
       <c r="T17">
-        <v>0.09835820688661924</v>
+        <v>0.01302282235447201</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H18">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I18">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J18">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>451.7938437754317</v>
+        <v>50.08750029174956</v>
       </c>
       <c r="R18">
-        <v>4066.144593978885</v>
+        <v>450.7875026257461</v>
       </c>
       <c r="S18">
-        <v>0.299968651642096</v>
+        <v>0.1430450819566586</v>
       </c>
       <c r="T18">
-        <v>0.299968651642096</v>
+        <v>0.1430450819566586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.325947</v>
+        <v>0.5185656666666667</v>
       </c>
       <c r="H19">
-        <v>15.977841</v>
+        <v>1.555697</v>
       </c>
       <c r="I19">
-        <v>0.8419778677449234</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="J19">
-        <v>0.8419778677449233</v>
+        <v>0.3370318736967531</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>279.4806257768397</v>
+        <v>16.40090882994056</v>
       </c>
       <c r="R19">
-        <v>2515.325631991557</v>
+        <v>147.608179469465</v>
       </c>
       <c r="S19">
-        <v>0.1855612413258977</v>
+        <v>0.04683941770056706</v>
       </c>
       <c r="T19">
-        <v>0.1855612413258977</v>
+        <v>0.04683941770056706</v>
       </c>
     </row>
   </sheetData>
